--- a/TestList/buyclass-admin.xlsx
+++ b/TestList/buyclass-admin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="12015"/>
+    <workbookView windowWidth="24525" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
   <si>
     <t>序号
 （id）</t>
@@ -117,7 +117,7 @@
     <t>enternumber</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div[2]/div/div[2]/div[3]/div/div[1]/div/div[1]/div[1]/ul/li[7]/input</t>
+    <t>//*[@placeholder="帐号"]</t>
   </si>
   <si>
     <t>888888888888888882</t>
@@ -126,19 +126,19 @@
     <t>clickinquire</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div[2]/div/div[2]/div[3]/div/div[1]/div/div[1]/div[1]/ul/li[12]/a</t>
+    <t>//*[@has-permission="orderManage/searchOrderPage"]</t>
   </si>
   <si>
     <t>clickorderdetail</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div[2]/div/div[2]/div[3]/div/div[1]/div/div[1]/div[2]/div[2]/table/tbody/tr[1]/td[9]/button</t>
+    <t>//*[@has-permission="orderManage/commonOrderDetail"]</t>
   </si>
   <si>
     <t>clickrefund</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div[2]/div/div[2]/div[3]/div/div[1]/div/div[3]/div/div[3]/table/tbody/tr/td[6]/button</t>
+    <t>//*[@has-permission="orderManage/applyRefund"]</t>
   </si>
   <si>
     <t>choose a refund reason</t>
@@ -168,49 +168,43 @@
     <t>/html/body/div[11]/div/div/div[3]/button</t>
   </si>
   <si>
-    <t>enter your refund management inquiry</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[1]/div/input</t>
-  </si>
-  <si>
-    <t>退款管理</t>
-  </si>
-  <si>
-    <t>click refund management</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[1]/ul/li[1]/a</t>
-  </si>
-  <si>
-    <t>click refund management1</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[1]/ul/li[1]/ul/li[1]/a</t>
-  </si>
-  <si>
-    <t>enternumber1</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[2]/div[4]/div/div[1]/div/div[1]/div/div[1]/form/ul/li[3]/div/input</t>
-  </si>
-  <si>
-    <t>clickinquire1</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[2]/div[4]/div/div[1]/div/div[1]/div/div[1]/form/ul/li[9]/a</t>
-  </si>
-  <si>
-    <t>click to agree to refund</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[2]/div[4]/div/div[1]/div/div[1]/div/div[3]/div[2]/table/tbody/tr/td[11]/div/a[1]</t>
-  </si>
-  <si>
-    <t>click to confirm</t>
-  </si>
-  <si>
-    <t>/html/body/div[19]/div/div[2]/div/div[2]/div/a[1]</t>
+    <t>Refund management</t>
+  </si>
+  <si>
+    <t>http://testynsf.59iedu.com/admin/refundManage</t>
+  </si>
+  <si>
+    <t>Close menu</t>
+  </si>
+  <si>
+    <t>//*[@class="ico side-label"]</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>//*[@has-permission="refundManage/approverefund"]</t>
+  </si>
+  <si>
+    <t>Approved sure</t>
+  </si>
+  <si>
+    <t>//*[@class="btn btn-r"]</t>
+  </si>
+  <si>
+    <t>waitRefund query</t>
+  </si>
+  <si>
+    <t>等待</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Refund query</t>
+  </si>
+  <si>
+    <t>//*[@has-permission="refundManage/searchOrderPage"]</t>
   </si>
 </sst>
 </file>
@@ -220,8 +214,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -233,13 +227,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -255,6 +242,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,6 +278,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -292,6 +293,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -302,28 +319,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,14 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,14 +342,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -375,6 +355,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -385,18 +379,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -409,55 +529,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,30 +553,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -500,72 +560,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,6 +584,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,26 +627,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,17 +662,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,143 +676,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -828,10 +822,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1181,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1239,19 +1233,19 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1259,19 +1253,19 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1279,19 +1273,19 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1299,19 +1293,19 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1319,19 +1313,19 @@
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:6">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1339,19 +1333,19 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1418,7 +1412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="27" spans="1:6">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1438,7 +1432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="27" spans="1:6">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1538,7 +1532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="27" spans="1:6">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1546,16 +1540,16 @@
         <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
         <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1563,7 +1557,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -1572,7 +1566,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1583,7 +1577,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -1592,7 +1586,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1603,42 +1597,42 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>32</v>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="27" spans="1:6">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1658,39 +1652,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C18">
       <formula1>"访问,输入,点击,等待,查验"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D17 D18 D9:D12 D13:D16 D19:D24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23 C9:C12 C13:C14 C15:C16">
+      <formula1>"访问,输入,点击,等待"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D17 D18 D19 D20 D21 D22 D23 D9:D12 D13:D16">
       <formula1>"URL,Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25:D65510">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D65500">
       <formula1>"xpath,name,id,css,text"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C12 C13:C14 C15:C16">
-      <formula1>"访问,输入,点击,等待"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestList/buyclass-admin.xlsx
+++ b/TestList/buyclass-admin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>序号
 （id）</t>
@@ -108,6 +108,15 @@
     <t>//input[contains(@type,'submit')]</t>
   </si>
   <si>
+    <t>waitlogin</t>
+  </si>
+  <si>
+    <t>等待</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>ordermanagement</t>
   </si>
   <si>
@@ -193,12 +202,6 @@
   </si>
   <si>
     <t>waitRefund query</t>
-  </si>
-  <si>
-    <t>等待</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>Refund query</t>
@@ -212,9 +215,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -226,6 +229,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -234,21 +299,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,93 +359,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -362,13 +372,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -379,25 +382,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,19 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,133 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,60 +573,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -646,7 +595,70 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,25 +673,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,144 +691,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1175,40 +1175,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="101.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="101.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="24.625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1236,7 +1236,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1245,7 +1245,7 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1256,7 +1256,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1265,7 +1265,7 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1276,7 +1276,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1285,7 +1285,7 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1296,7 +1296,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1305,7 +1305,7 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1316,7 +1316,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1325,7 +1325,7 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1336,7 +1336,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1345,79 +1345,79 @@
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:6">
+    <row r="9" s="2" customFormat="1" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>29</v>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" customFormat="1" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="E10" t="s">
         <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
+      <c r="F11" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -1425,8 +1425,8 @@
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>36</v>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1436,8 +1436,8 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -1445,8 +1445,8 @@
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1456,8 +1456,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -1465,8 +1465,8 @@
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
+      <c r="E14" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -1476,8 +1476,8 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
@@ -1485,68 +1485,68 @@
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:6">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>44</v>
+      <c r="E16" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>48</v>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1556,17 +1556,17 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>50</v>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1576,8 +1576,8 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>52</v>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -1585,8 +1585,8 @@
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>53</v>
+      <c r="E20" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1596,8 +1596,8 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>54</v>
+      <c r="B21" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
@@ -1605,8 +1605,8 @@
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>55</v>
+      <c r="E21" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
@@ -1617,18 +1617,18 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1636,34 +1636,54 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C19">
       <formula1>"访问,输入,点击,等待,查验"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23 C9:C12 C13:C14 C15:C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D9 D18 D19 D20 D21 D22 D23 D24 D10:D13 D14:D17">
+      <formula1>"URL,Xpath"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24 C10:C13 C14:C15 C16:C17">
       <formula1>"访问,输入,点击,等待"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D17 D18 D19 D20 D21 D22 D23 D9:D12 D13:D16">
-      <formula1>"URL,Xpath"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D65500">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25:D65501">
       <formula1>"xpath,name,id,css,text"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TestList/buyclass-admin.xlsx
+++ b/TestList/buyclass-admin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
   <si>
     <t>序号
 （id）</t>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>//input[contains(@type,'submit')]</t>
+  </si>
+  <si>
+    <t>重跑</t>
   </si>
   <si>
     <t>waitlogin</t>
@@ -215,9 +218,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -229,6 +232,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -237,6 +254,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -245,6 +322,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -261,88 +368,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,28 +375,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -382,187 +385,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,6 +590,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,26 +657,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,42 +676,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,131 +694,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,7 +1181,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1349,7 +1352,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:6">
@@ -1357,16 +1360,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1377,7 +1380,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -1386,7 +1389,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1397,7 +1400,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -1406,10 +1409,10 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1417,7 +1420,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -1426,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1437,7 +1440,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -1446,7 +1449,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1457,7 +1460,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -1466,7 +1469,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -1477,7 +1480,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
@@ -1486,7 +1489,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -1497,7 +1500,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -1506,7 +1509,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1517,7 +1520,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -1526,10 +1529,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1537,7 +1540,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
@@ -1546,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1557,7 +1560,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
@@ -1566,7 +1569,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1577,7 +1580,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -1586,7 +1589,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1597,7 +1600,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
@@ -1606,7 +1609,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
@@ -1617,7 +1620,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
@@ -1626,7 +1629,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>10</v>
@@ -1637,16 +1640,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>10</v>
@@ -1657,7 +1660,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
@@ -1666,7 +1669,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
